--- a/PIsearching key.xlsx
+++ b/PIsearching key.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="402">
   <si>
     <t>PIs</t>
   </si>
@@ -580,13 +580,658 @@
   </si>
   <si>
     <t>Christoph Ledermann</t>
+  </si>
+  <si>
+    <t>Florian J. Bernard</t>
+  </si>
+  <si>
+    <t>Wrobel, Stefan</t>
+  </si>
+  <si>
+    <t>Bauckhage, Christian</t>
+  </si>
+  <si>
+    <t>Demidova, Elena</t>
+  </si>
+  <si>
+    <t>Manthey, Rainer</t>
+  </si>
+  <si>
+    <t>Volker Steinhage</t>
+  </si>
+  <si>
+    <t>Breiten, Tobias</t>
+  </si>
+  <si>
+    <t>Matthias Boehm 0001</t>
+  </si>
+  <si>
+    <t>Glesner, Sabine</t>
+  </si>
+  <si>
+    <t>Haufe, Stefan</t>
+  </si>
+  <si>
+    <t>Hellwich, Olaf</t>
+  </si>
+  <si>
+    <t>Müller, Klaus-Robert</t>
+  </si>
+  <si>
+    <t>Raisch, Jörg</t>
+  </si>
+  <si>
+    <t>Samek, Wojciech</t>
+  </si>
+  <si>
+    <t>Thewes, Roland</t>
+  </si>
+  <si>
+    <t>Sprekeler, Henning</t>
+  </si>
+  <si>
+    <t>Peter Buxmann</t>
+  </si>
+  <si>
+    <t>Alexander Benlian</t>
+  </si>
+  <si>
+    <t>Heiko Mantel</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>Uni Bonn</t>
+  </si>
+  <si>
+    <t>Wolfgang Koch 0001</t>
+  </si>
+  <si>
+    <t>TU Berlin</t>
+  </si>
+  <si>
+    <t>TU Darmstadt</t>
+  </si>
+  <si>
+    <t>Stephan Rinderknecht</t>
+  </si>
+  <si>
+    <t>Carsten Binnig</t>
+  </si>
+  <si>
+    <t>Andreas Koch 0001</t>
+  </si>
+  <si>
+    <t>Dominik L. Michels</t>
+  </si>
+  <si>
+    <t>Max Mühlhäuser</t>
+  </si>
+  <si>
+    <t>Jürgen Adamy</t>
+  </si>
+  <si>
+    <t>Rolf Findeisen</t>
+  </si>
+  <si>
+    <t>Christoph Hoog Antink</t>
+  </si>
+  <si>
+    <t>Mario Kupnik</t>
+  </si>
+  <si>
+    <t>author:Walter_Lang:</t>
+  </si>
+  <si>
+    <t>author:Kai_Michels:</t>
+  </si>
+  <si>
+    <t>author:Florian_Walter:</t>
+  </si>
+  <si>
+    <t>UTN</t>
+  </si>
+  <si>
+    <t>Josif Grabocka</t>
+  </si>
+  <si>
+    <t>Oliver Amft</t>
+  </si>
+  <si>
+    <t>Frank Hutter</t>
+  </si>
+  <si>
+    <t>Andreas Podelski</t>
+  </si>
+  <si>
+    <t>author:Fabian_Kuhn:</t>
+  </si>
+  <si>
+    <t>Christoph Scholl 0001</t>
+  </si>
+  <si>
+    <t>Marco Zimmerling</t>
+  </si>
+  <si>
+    <t>Zeynep Akata</t>
+  </si>
+  <si>
+    <t>Ulrike von Luxburg</t>
+  </si>
+  <si>
+    <t>Robert Bamler</t>
+  </si>
+  <si>
+    <t>Jakob Macke</t>
+  </si>
+  <si>
+    <t>Setareh Maghsudi</t>
+  </si>
+  <si>
+    <t>author:Matthias_Hein_0001:</t>
+  </si>
+  <si>
+    <t>Claire Vernade</t>
+  </si>
+  <si>
+    <t>author:Philipp_Hennig:</t>
+  </si>
+  <si>
+    <t>Robert C. Williamson</t>
+  </si>
+  <si>
+    <t>Oliver Bringmann 0001</t>
+  </si>
+  <si>
+    <t>Anna Levina</t>
+  </si>
+  <si>
+    <t>Martin v. Butz</t>
+  </si>
+  <si>
+    <t>author:Nico_Pfeifer:</t>
+  </si>
+  <si>
+    <t>Konstantin Genin</t>
+  </si>
+  <si>
+    <t>Gerard Pons-Moll</t>
+  </si>
+  <si>
+    <t>Nicole Ludwig 0002</t>
+  </si>
+  <si>
+    <t>Geffner, Hector</t>
+  </si>
+  <si>
+    <t>Ney, Hermann</t>
+  </si>
+  <si>
+    <t>author:Ulrik_Schroeder:</t>
+  </si>
+  <si>
+    <t>Borchers, Jan Oliver</t>
+  </si>
+  <si>
+    <t>author:Dirk_Abel:</t>
+  </si>
+  <si>
+    <t>Christian Ebenbauer</t>
+  </si>
+  <si>
+    <t>Jürgen Roßmann</t>
+  </si>
+  <si>
+    <t>Anke Schmeink</t>
+  </si>
+  <si>
+    <t>Matthias Becker 0002</t>
+  </si>
+  <si>
+    <t>Marius Lindauer</t>
+  </si>
+  <si>
+    <t>Bernd Ponick</t>
+  </si>
+  <si>
+    <t>Henning Wachsmuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Nejdl </t>
+  </si>
+  <si>
+    <t>Gabriele von Voigt</t>
+  </si>
+  <si>
+    <t>Ralph Ewerth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria-Esther Vidal </t>
+  </si>
+  <si>
+    <t>Ziawasch Abedjan</t>
+  </si>
+  <si>
+    <t>Siegmund, Stefan</t>
+  </si>
+  <si>
+    <t>Gerhard Weber 0002</t>
+  </si>
+  <si>
+    <t>author:Bjoern_Andres:</t>
+  </si>
+  <si>
+    <t>Groh, Rainer 0001</t>
+  </si>
+  <si>
+    <t>Dachselt, Raimund</t>
+  </si>
+  <si>
+    <t>Aßmann, Uwe</t>
+  </si>
+  <si>
+    <t>McGinity, Matthew</t>
+  </si>
+  <si>
+    <t>Heiko Vogler</t>
+  </si>
+  <si>
+    <t>Krötzsch, Markus</t>
+  </si>
+  <si>
+    <t>Peter Birkholz</t>
+  </si>
+  <si>
+    <t>Yitian Shao</t>
+  </si>
+  <si>
+    <t>Anindya Nag</t>
+  </si>
+  <si>
+    <t>author:Leon_Urbas:</t>
+  </si>
+  <si>
+    <t>Christian Georg Mayr</t>
+  </si>
+  <si>
+    <t>Giang T. Nguyen 0002</t>
+  </si>
+  <si>
+    <t>author:Andreas_Richter:</t>
+  </si>
+  <si>
+    <t>Ihlenfeldt, Steffen</t>
+  </si>
+  <si>
+    <t>Wollschlaeger, Martin</t>
+  </si>
+  <si>
+    <t>Sommer, Christoph 0001</t>
+  </si>
+  <si>
+    <t>Kabitzsch, Klaus</t>
+  </si>
+  <si>
+    <t>Andrés Bruhn</t>
+  </si>
+  <si>
+    <t>Andreas Bulling</t>
+  </si>
+  <si>
+    <t>author:Jonas_Kuhn:</t>
+  </si>
+  <si>
+    <t>Mathias Niepert</t>
+  </si>
+  <si>
+    <t>author:Sebastian_Padó:</t>
+  </si>
+  <si>
+    <t>Michael Sedlmair</t>
+  </si>
+  <si>
+    <t>Michael Weyrich</t>
+  </si>
+  <si>
+    <t>Andrea Iannelli</t>
+  </si>
+  <si>
+    <t>Remco I. Leine</t>
+  </si>
+  <si>
+    <t>author:Peter_Pott:</t>
+  </si>
+  <si>
+    <t>Nicole Radde</t>
+  </si>
+  <si>
+    <t>Oliver Sawodny</t>
+  </si>
+  <si>
+    <t>Cristina Tarín</t>
+  </si>
+  <si>
+    <t>Stulp, Freek</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>Jakob H. Macke</t>
+  </si>
+  <si>
+    <t>Moritz Hardt</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>author:Wenqi_Hu:</t>
+  </si>
+  <si>
+    <t>Michael Mühlebach</t>
+  </si>
+  <si>
+    <t>Wieland Brendel</t>
+  </si>
+  <si>
+    <t>Michel Besserve</t>
+  </si>
+  <si>
+    <t>Philipp Beckerle</t>
+  </si>
+  <si>
+    <t>Julia Arlinghaus</t>
+  </si>
+  <si>
+    <t>Fraunhofer</t>
+  </si>
+  <si>
+    <t>Dirk Berndt</t>
+  </si>
+  <si>
+    <t>author:Werner_Kraus:</t>
+  </si>
+  <si>
+    <t>Kai Lindow</t>
+  </si>
+  <si>
+    <t>Eckart Uhlmann</t>
+  </si>
+  <si>
+    <t>Jörg Krüger</t>
+  </si>
+  <si>
+    <t>Sören Kerner</t>
+  </si>
+  <si>
+    <t>Janko Petereit</t>
+  </si>
+  <si>
+    <t>Elisabeth Peinsipp-Byma</t>
+  </si>
+  <si>
+    <t>Julius Pfrommer</t>
+  </si>
+  <si>
+    <t>Oliver Niehörster</t>
+  </si>
+  <si>
+    <t>Christian w. Frey</t>
+  </si>
+  <si>
+    <t>Thomas Rauschenbach</t>
+  </si>
+  <si>
+    <t>author:Michael_Arens:</t>
+  </si>
+  <si>
+    <t>author:Johannes_Meyer:</t>
+  </si>
+  <si>
+    <t>author:Daniel_Kühn:</t>
+  </si>
+  <si>
+    <t>Sirko Straube</t>
+  </si>
+  <si>
+    <t>Didier Stricker</t>
+  </si>
+  <si>
+    <t>Daniel Sonntag</t>
+  </si>
+  <si>
+    <t>Paul Lukowicz</t>
+  </si>
+  <si>
+    <t>Agnes Grünerbl</t>
+  </si>
+  <si>
+    <t>Bo Zhou 0005</t>
+  </si>
+  <si>
+    <t>Kristian Kersting</t>
+  </si>
+  <si>
+    <t>Gesche Joost</t>
+  </si>
+  <si>
+    <t>Joachim Hertzberg</t>
+  </si>
+  <si>
+    <t>Kai Lingemann</t>
+  </si>
+  <si>
+    <t>Sebastian Möller 0001</t>
+  </si>
+  <si>
+    <t>Sven Schmeier</t>
+  </si>
+  <si>
+    <t>Manfred Hild</t>
+  </si>
+  <si>
+    <t>BHT Berlin</t>
+  </si>
+  <si>
+    <t>author:Martin_Otter:</t>
+  </si>
+  <si>
+    <t>Tim Landgraf</t>
+  </si>
+  <si>
+    <t>FU Berlin</t>
+  </si>
+  <si>
+    <t>Katja D. Mombaur</t>
+  </si>
+  <si>
+    <t>Barbara Deml</t>
+  </si>
+  <si>
+    <t>Armin Grunwald</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>Gisela Lanza</t>
+  </si>
+  <si>
+    <t>Jürgen Fleischer</t>
+  </si>
+  <si>
+    <t>Rania Rayyes</t>
+  </si>
+  <si>
+    <t>Stefanie Speidel</t>
+  </si>
+  <si>
+    <t>TU Dresden</t>
+  </si>
+  <si>
+    <t>Stefan Kopp</t>
+  </si>
+  <si>
+    <t>author:Elisabeth_André:</t>
+  </si>
+  <si>
+    <t>Heiner Kuhlmann</t>
+  </si>
+  <si>
+    <t>Frank H. P. Fitzek</t>
+  </si>
+  <si>
+    <t>Horst-Michael Groß</t>
+  </si>
+  <si>
+    <t>TU Ilmenau</t>
+  </si>
+  <si>
+    <t>Jan Stallkamp</t>
+  </si>
+  <si>
+    <t>Georg Martius</t>
+  </si>
+  <si>
+    <t>Stefan Wermter</t>
+  </si>
+  <si>
+    <t>Uni Hamburg</t>
+  </si>
+  <si>
+    <t>Nico Hochgeschwender</t>
+  </si>
+  <si>
+    <t>Kirsten Tracht</t>
+  </si>
+  <si>
+    <t>Maria Piechnick</t>
+  </si>
+  <si>
+    <t>Edoardo Milana</t>
+  </si>
+  <si>
+    <t>Philipp Cimiano</t>
+  </si>
+  <si>
+    <t>Hanna Drimalla</t>
+  </si>
+  <si>
+    <t>Volker Dürr</t>
+  </si>
+  <si>
+    <t>Friederike Eyssel</t>
+  </si>
+  <si>
+    <t>author:Barbara_Hammer:</t>
+  </si>
+  <si>
+    <t>author:Johanna_Kissler:</t>
+  </si>
+  <si>
+    <t>Klaus Neumann 0002</t>
+  </si>
+  <si>
+    <t>Helge Rhodin</t>
+  </si>
+  <si>
+    <t>Ulrich Rückert 0001</t>
+  </si>
+  <si>
+    <t>Thomas Schack</t>
+  </si>
+  <si>
+    <t>author:Werner_Schneider:</t>
+  </si>
+  <si>
+    <t>Sven Wachsmuth</t>
+  </si>
+  <si>
+    <t>author:Petra_Wagner:</t>
+  </si>
+  <si>
+    <t>Britta Wrede</t>
+  </si>
+  <si>
+    <t>Sebastian Wrede 0001</t>
+  </si>
+  <si>
+    <t>Robert Haschke</t>
+  </si>
+  <si>
+    <t>Hans Schotten</t>
+  </si>
+  <si>
+    <t>DFKI</t>
+  </si>
+  <si>
+    <t>author:Jana_Jost:</t>
+  </si>
+  <si>
+    <t>Michael ten Hompel</t>
+  </si>
+  <si>
+    <t>Holger Hanselka</t>
+  </si>
+  <si>
+    <t>author:Michael_Voit:</t>
+  </si>
+  <si>
+    <t>Thomas Bauernhansl</t>
+  </si>
+  <si>
+    <t>Kai Furmans</t>
+  </si>
+  <si>
+    <t>Debora Clever</t>
+  </si>
+  <si>
+    <t>Florian Hartmann</t>
+  </si>
+  <si>
+    <t>Dieter Büchler</t>
+  </si>
+  <si>
+    <t>Uni Bremen</t>
+  </si>
+  <si>
+    <t>Uni Freiburg</t>
+  </si>
+  <si>
+    <t>Uni Tübingen</t>
+  </si>
+  <si>
+    <t>RWTH Aachen</t>
+  </si>
+  <si>
+    <t>LU Hannover</t>
+  </si>
+  <si>
+    <t>Uni Stuttgart</t>
+  </si>
+  <si>
+    <t>FAU Erlangen</t>
+  </si>
+  <si>
+    <t>Uni Bielefeld</t>
+  </si>
+  <si>
+    <t>Uni Augsburg</t>
+  </si>
+  <si>
+    <t>Uni Heidelberg</t>
+  </si>
+  <si>
+    <t>martin ruskowski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +1266,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -712,6 +1364,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1001,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="E364" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,63 +2551,1634 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
+      <c r="B187" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B213" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B307" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B311" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B314" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B315" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B317" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B319" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B321" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B323" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B324" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B325" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B326" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B327" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B328" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B329" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B330" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B331" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B332" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B334" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B335" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B336" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B337" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B338" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B339" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B340" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B341" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B342" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B343" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B344" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B345" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B347" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B348" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B350" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B358" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B359" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B360" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B361" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B362" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B363" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B364" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B365" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B366" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B367" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B368" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B369" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B370" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B371" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B372" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B373" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B374" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B375" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B376" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B377" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B378" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B379" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B380" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A57">

--- a/PIsearching key.xlsx
+++ b/PIsearching key.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="412">
   <si>
     <t>PIs</t>
   </si>
@@ -1225,6 +1225,36 @@
   </si>
   <si>
     <t>martin ruskowski</t>
+  </si>
+  <si>
+    <t>Bischl, Bernd</t>
+  </si>
+  <si>
+    <t>Busse, Laura</t>
+  </si>
+  <si>
+    <t>Hüllermeier, Eyke</t>
+  </si>
+  <si>
+    <t>Kreuter, Frauke</t>
+  </si>
+  <si>
+    <t>Kutyniok, Gitta</t>
+  </si>
+  <si>
+    <t>Ommer, Björn</t>
+  </si>
+  <si>
+    <t>Plank, Barbara</t>
+  </si>
+  <si>
+    <t>Schmidt, Albrecht 0001</t>
+  </si>
+  <si>
+    <t>Schütze, Hinrich</t>
+  </si>
+  <si>
+    <t>LMU</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1359,10 +1389,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1657,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,296 +2382,296 @@
         <v>176</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="11" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="11" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="11" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="11" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="11" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="11" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="13" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="13" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="13" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="13" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="13" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="13" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="13" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="14" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="13" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="13" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="13" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="13" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -2653,7 +2679,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="14" t="s">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -2661,7 +2687,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -2669,7 +2695,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -2677,7 +2703,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="14" t="s">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -2685,7 +2711,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="14" t="s">
+      <c r="A194" t="s">
         <v>208</v>
       </c>
       <c r="B194" t="s">
@@ -2693,7 +2719,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="14" t="s">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195" t="s">
@@ -2701,7 +2727,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="14" t="s">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196" t="s">
@@ -2709,7 +2735,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="s">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197" t="s">
@@ -2717,7 +2743,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="14" t="s">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198" t="s">
@@ -2725,7 +2751,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="14" t="s">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199" t="s">
@@ -2733,7 +2759,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="14" t="s">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200" t="s">
@@ -2741,7 +2767,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="14" t="s">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201" t="s">
@@ -2749,7 +2775,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="14" t="s">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202" t="s">
@@ -2757,7 +2783,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="14" t="s">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203" t="s">
@@ -2765,7 +2791,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="14" t="s">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204" t="s">
@@ -2773,7 +2799,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="14" t="s">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205" t="s">
@@ -2781,7 +2807,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="14" t="s">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206" t="s">
@@ -2789,7 +2815,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="14" t="s">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207" t="s">
@@ -2797,7 +2823,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="14" t="s">
+      <c r="A208" t="s">
         <v>211</v>
       </c>
       <c r="B208" t="s">
@@ -2805,7 +2831,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="14" t="s">
+      <c r="A209" t="s">
         <v>212</v>
       </c>
       <c r="B209" t="s">
@@ -2813,7 +2839,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="14" t="s">
+      <c r="A210" t="s">
         <v>213</v>
       </c>
       <c r="B210" t="s">
@@ -2821,7 +2847,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="14" t="s">
+      <c r="A211" t="s">
         <v>214</v>
       </c>
       <c r="B211" t="s">
@@ -2829,7 +2855,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="14" t="s">
+      <c r="A212" t="s">
         <v>215</v>
       </c>
       <c r="B212" t="s">
@@ -2837,7 +2863,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="14" t="s">
+      <c r="A213" t="s">
         <v>65</v>
       </c>
       <c r="B213" t="s">
@@ -2845,7 +2871,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="14" t="s">
+      <c r="A214" t="s">
         <v>216</v>
       </c>
       <c r="B214" t="s">
@@ -2853,7 +2879,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="14" t="s">
+      <c r="A215" t="s">
         <v>217</v>
       </c>
       <c r="B215" t="s">
@@ -2861,7 +2887,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="14" t="s">
+      <c r="A216" t="s">
         <v>218</v>
       </c>
       <c r="B216" t="s">
@@ -2869,7 +2895,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="14" t="s">
+      <c r="A217" t="s">
         <v>219</v>
       </c>
       <c r="B217" t="s">
@@ -2877,7 +2903,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="14" t="s">
+      <c r="A218" t="s">
         <v>220</v>
       </c>
       <c r="B218" t="s">
@@ -2885,7 +2911,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="14" t="s">
+      <c r="A219" t="s">
         <v>221</v>
       </c>
       <c r="B219" t="s">
@@ -2893,7 +2919,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="14" t="s">
+      <c r="A220" t="s">
         <v>222</v>
       </c>
       <c r="B220" t="s">
@@ -2901,7 +2927,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="14" t="s">
+      <c r="A221" t="s">
         <v>224</v>
       </c>
       <c r="B221" t="s">
@@ -2909,7 +2935,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="14" t="s">
+      <c r="A222" t="s">
         <v>225</v>
       </c>
       <c r="B222" t="s">
@@ -2917,7 +2943,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="s">
+      <c r="A223" t="s">
         <v>226</v>
       </c>
       <c r="B223" t="s">
@@ -2925,7 +2951,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="14" t="s">
+      <c r="A224" t="s">
         <v>224</v>
       </c>
       <c r="B224" t="s">
@@ -2933,7 +2959,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="14" t="s">
+      <c r="A225" t="s">
         <v>227</v>
       </c>
       <c r="B225" t="s">
@@ -2941,7 +2967,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
+      <c r="A226" t="s">
         <v>228</v>
       </c>
       <c r="B226" t="s">
@@ -2949,7 +2975,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="14" t="s">
+      <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
@@ -2957,7 +2983,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="14" t="s">
+      <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
@@ -2965,279 +2991,279 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="14" t="s">
+      <c r="A229" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="14" t="s">
+      <c r="A230" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="16" t="s">
+      <c r="B230" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="14" t="s">
+      <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="16" t="s">
+      <c r="B231" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="14" t="s">
+      <c r="A232" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="14" t="s">
+      <c r="A233" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="14" t="s">
+      <c r="A234" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="14" t="s">
+      <c r="A235" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="14" t="s">
+      <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="14" t="s">
+      <c r="A237" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="16" t="s">
+      <c r="B237" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="14" t="s">
+      <c r="A238" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="14" t="s">
+      <c r="A239" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="14" t="s">
+      <c r="A240" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="14" t="s">
+      <c r="A241" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="14" t="s">
+      <c r="A242" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="14" t="s">
+      <c r="A243" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="B243" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="14" t="s">
+      <c r="A244" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="14" t="s">
+      <c r="A245" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="14" t="s">
+      <c r="A246" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="16" t="s">
+      <c r="B246" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="14" t="s">
+      <c r="A247" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="14" t="s">
+      <c r="A248" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="16" t="s">
+      <c r="B248" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="14" t="s">
+      <c r="A249" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="16" t="s">
+      <c r="B249" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="14" t="s">
+      <c r="A250" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B250" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="14" t="s">
+      <c r="A251" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="16" t="s">
+      <c r="B251" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="14" t="s">
+      <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="16" t="s">
+      <c r="B252" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="14" t="s">
+      <c r="A253" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="14" t="s">
+      <c r="A254" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="14" t="s">
+      <c r="A255" t="s">
         <v>105</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="s">
+      <c r="A256" t="s">
         <v>257</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="B256" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="14" t="s">
+      <c r="A257" t="s">
         <v>258</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="14" t="s">
+      <c r="A258" t="s">
         <v>259</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="14" t="s">
+      <c r="A259" t="s">
         <v>260</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="14" t="s">
+      <c r="A260" t="s">
         <v>261</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="s">
+      <c r="A261" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="s">
+      <c r="A262" t="s">
         <v>263</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="14" t="s">
+      <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263" t="s">
@@ -3245,7 +3271,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="14" t="s">
+      <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264" t="s">
@@ -3253,7 +3279,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="14" t="s">
+      <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265" t="s">
@@ -3261,7 +3287,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="s">
+      <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266" t="s">
@@ -3269,7 +3295,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="14" t="s">
+      <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267" t="s">
@@ -3277,7 +3303,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="14" t="s">
+      <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268" t="s">
@@ -3285,7 +3311,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="14" t="s">
+      <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269" t="s">
@@ -3293,7 +3319,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="s">
+      <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270" t="s">
@@ -3301,7 +3327,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="14" t="s">
+      <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271" t="s">
@@ -3309,7 +3335,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="14" t="s">
+      <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272" t="s">
@@ -3317,7 +3343,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="14" t="s">
+      <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273" t="s">
@@ -3325,7 +3351,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="14" t="s">
+      <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274" t="s">
@@ -3333,7 +3359,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="14" t="s">
+      <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275" t="s">
@@ -3341,7 +3367,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+      <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276" t="s">
@@ -3349,7 +3375,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="s">
+      <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277" t="s">
@@ -3357,7 +3383,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
+      <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278" t="s">
@@ -3365,7 +3391,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="14" t="s">
+      <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279" t="s">
@@ -3373,7 +3399,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="14" t="s">
+      <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="B280" t="s">
@@ -3381,7 +3407,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="14" t="s">
+      <c r="A281" t="s">
         <v>282</v>
       </c>
       <c r="B281" t="s">
@@ -3389,7 +3415,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="14" t="s">
+      <c r="A282" t="s">
         <v>283</v>
       </c>
       <c r="B282" t="s">
@@ -3397,111 +3423,111 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="14" t="s">
+      <c r="A283" t="s">
         <v>284</v>
       </c>
-      <c r="B283" s="16" t="s">
+      <c r="B283" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="14" t="s">
+      <c r="A284" t="s">
         <v>285</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="14" t="s">
+      <c r="A285" t="s">
         <v>286</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="14" t="s">
+      <c r="A286" t="s">
         <v>287</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="s">
+      <c r="A287" t="s">
         <v>288</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B287" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="s">
+      <c r="A288" t="s">
         <v>289</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="14" t="s">
+      <c r="A289" t="s">
         <v>290</v>
       </c>
-      <c r="B289" s="16" t="s">
+      <c r="B289" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="s">
+      <c r="A290" t="s">
         <v>291</v>
       </c>
-      <c r="B290" s="16" t="s">
+      <c r="B290" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="s">
+      <c r="A291" t="s">
         <v>292</v>
       </c>
-      <c r="B291" s="16" t="s">
+      <c r="B291" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="14" t="s">
+      <c r="A292" t="s">
         <v>293</v>
       </c>
-      <c r="B292" s="16" t="s">
+      <c r="B292" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="14" t="s">
+      <c r="A293" t="s">
         <v>294</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="14" t="s">
+      <c r="A294" t="s">
         <v>295</v>
       </c>
-      <c r="B294" s="16" t="s">
+      <c r="B294" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="14" t="s">
+      <c r="A295" t="s">
         <v>296</v>
       </c>
-      <c r="B295" s="16" t="s">
+      <c r="B295" s="14" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="s">
+      <c r="A296" t="s">
         <v>297</v>
       </c>
       <c r="B296" t="s">
@@ -3509,15 +3535,15 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="14" t="s">
+      <c r="A297" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="16" t="s">
+      <c r="B297" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="14" t="s">
+      <c r="A298" t="s">
         <v>300</v>
       </c>
       <c r="B298" t="s">
@@ -3525,7 +3551,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="14" t="s">
+      <c r="A299" t="s">
         <v>302</v>
       </c>
       <c r="B299" t="s">
@@ -3533,7 +3559,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="14" t="s">
+      <c r="A300" t="s">
         <v>303</v>
       </c>
       <c r="B300" t="s">
@@ -3541,7 +3567,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="14" t="s">
+      <c r="A301" t="s">
         <v>304</v>
       </c>
       <c r="B301" t="s">
@@ -3549,7 +3575,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="14" t="s">
+      <c r="A302" t="s">
         <v>305</v>
       </c>
       <c r="B302" t="s">
@@ -3557,7 +3583,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="14" t="s">
+      <c r="A303" t="s">
         <v>306</v>
       </c>
       <c r="B303" t="s">
@@ -3565,7 +3591,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="14" t="s">
+      <c r="A304" t="s">
         <v>307</v>
       </c>
       <c r="B304" t="s">
@@ -3573,7 +3599,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="14" t="s">
+      <c r="A305" t="s">
         <v>309</v>
       </c>
       <c r="B305" t="s">
@@ -3581,7 +3607,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="14" t="s">
+      <c r="A306" t="s">
         <v>310</v>
       </c>
       <c r="B306" t="s">
@@ -3589,7 +3615,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="14" t="s">
+      <c r="A307" t="s">
         <v>311</v>
       </c>
       <c r="B307" t="s">
@@ -3597,7 +3623,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="14" t="s">
+      <c r="A308" t="s">
         <v>312</v>
       </c>
       <c r="B308" t="s">
@@ -3605,7 +3631,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="14" t="s">
+      <c r="A309" t="s">
         <v>313</v>
       </c>
       <c r="B309" t="s">
@@ -3613,7 +3639,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="14" t="s">
+      <c r="A310" t="s">
         <v>314</v>
       </c>
       <c r="B310" t="s">
@@ -3621,7 +3647,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="14" t="s">
+      <c r="A311" t="s">
         <v>315</v>
       </c>
       <c r="B311" t="s">
@@ -3629,7 +3655,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="14" t="s">
+      <c r="A312" t="s">
         <v>316</v>
       </c>
       <c r="B312" t="s">
@@ -3637,7 +3663,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="14" t="s">
+      <c r="A313" t="s">
         <v>317</v>
       </c>
       <c r="B313" t="s">
@@ -3645,7 +3671,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="14" t="s">
+      <c r="A314" t="s">
         <v>318</v>
       </c>
       <c r="B314" t="s">
@@ -3653,7 +3679,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="14" t="s">
+      <c r="A315" t="s">
         <v>319</v>
       </c>
       <c r="B315" t="s">
@@ -3661,7 +3687,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="14" t="s">
+      <c r="A316" t="s">
         <v>320</v>
       </c>
       <c r="B316" t="s">
@@ -3669,7 +3695,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="14" t="s">
+      <c r="A317" t="s">
         <v>321</v>
       </c>
       <c r="B317" t="s">
@@ -3677,7 +3703,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="s">
+      <c r="A318" t="s">
         <v>322</v>
       </c>
       <c r="B318" t="s">
@@ -3685,7 +3711,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="s">
+      <c r="A319" t="s">
         <v>382</v>
       </c>
       <c r="B319" t="s">
@@ -3693,7 +3719,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="14" t="s">
+      <c r="A320" t="s">
         <v>323</v>
       </c>
       <c r="B320" t="s">
@@ -3701,7 +3727,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="14" t="s">
+      <c r="A321" t="s">
         <v>324</v>
       </c>
       <c r="B321" t="s">
@@ -3709,7 +3735,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="14" t="s">
+      <c r="A322" t="s">
         <v>325</v>
       </c>
       <c r="B322" t="s">
@@ -3717,7 +3743,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="14" t="s">
+      <c r="A323" t="s">
         <v>326</v>
       </c>
       <c r="B323" t="s">
@@ -3725,7 +3751,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="14" t="s">
+      <c r="A324" t="s">
         <v>327</v>
       </c>
       <c r="B324" t="s">
@@ -3733,7 +3759,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="14" t="s">
+      <c r="A325" t="s">
         <v>328</v>
       </c>
       <c r="B325" t="s">
@@ -3741,7 +3767,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="14" t="s">
+      <c r="A326" t="s">
         <v>329</v>
       </c>
       <c r="B326" t="s">
@@ -3749,7 +3775,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="14" t="s">
+      <c r="A327" t="s">
         <v>330</v>
       </c>
       <c r="B327" t="s">
@@ -3757,7 +3783,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="14" t="s">
+      <c r="A328" t="s">
         <v>331</v>
       </c>
       <c r="B328" t="s">
@@ -3765,7 +3791,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="14" t="s">
+      <c r="A329" t="s">
         <v>332</v>
       </c>
       <c r="B329" t="s">
@@ -3773,7 +3799,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="14" t="s">
+      <c r="A330" t="s">
         <v>333</v>
       </c>
       <c r="B330" t="s">
@@ -3781,7 +3807,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="14" t="s">
+      <c r="A331" t="s">
         <v>334</v>
       </c>
       <c r="B331" t="s">
@@ -3789,7 +3815,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="14" t="s">
+      <c r="A332" t="s">
         <v>335</v>
       </c>
       <c r="B332" t="s">
@@ -3797,7 +3823,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="14" t="s">
+      <c r="A333" t="s">
         <v>336</v>
       </c>
       <c r="B333" t="s">
@@ -3805,7 +3831,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="14" t="s">
+      <c r="A334" t="s">
         <v>338</v>
       </c>
       <c r="B334" t="s">
@@ -3813,7 +3839,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="14" t="s">
+      <c r="A335" t="s">
         <v>339</v>
       </c>
       <c r="B335" t="s">
@@ -3821,7 +3847,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="14" t="s">
+      <c r="A336" t="s">
         <v>341</v>
       </c>
       <c r="B336" t="s">
@@ -3829,7 +3855,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="14" t="s">
+      <c r="A337" t="s">
         <v>342</v>
       </c>
       <c r="B337" t="s">
@@ -3837,7 +3863,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="14" t="s">
+      <c r="A338" t="s">
         <v>343</v>
       </c>
       <c r="B338" t="s">
@@ -3845,7 +3871,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="14" t="s">
+      <c r="A339" t="s">
         <v>345</v>
       </c>
       <c r="B339" t="s">
@@ -3853,7 +3879,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="14" t="s">
+      <c r="A340" t="s">
         <v>346</v>
       </c>
       <c r="B340" t="s">
@@ -3861,7 +3887,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="14" t="s">
+      <c r="A341" t="s">
         <v>347</v>
       </c>
       <c r="B341" t="s">
@@ -3869,7 +3895,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="14" t="s">
+      <c r="A342" t="s">
         <v>348</v>
       </c>
       <c r="B342" t="s">
@@ -3877,7 +3903,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="14" t="s">
+      <c r="A343" t="s">
         <v>350</v>
       </c>
       <c r="B343" t="s">
@@ -3885,7 +3911,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="14" t="s">
+      <c r="A344" t="s">
         <v>351</v>
       </c>
       <c r="B344" t="s">
@@ -3893,7 +3919,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="14" t="s">
+      <c r="A345" t="s">
         <v>352</v>
       </c>
       <c r="B345" t="s">
@@ -3901,7 +3927,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="14" t="s">
+      <c r="A346" t="s">
         <v>353</v>
       </c>
       <c r="B346" t="s">
@@ -3909,7 +3935,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="14" t="s">
+      <c r="A347" t="s">
         <v>354</v>
       </c>
       <c r="B347" t="s">
@@ -3917,7 +3943,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="14" t="s">
+      <c r="A348" t="s">
         <v>356</v>
       </c>
       <c r="B348" t="s">
@@ -3925,15 +3951,15 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="14" t="s">
+      <c r="A349" t="s">
         <v>357</v>
       </c>
-      <c r="B349" s="16" t="s">
+      <c r="B349" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="14" t="s">
+      <c r="A350" t="s">
         <v>358</v>
       </c>
       <c r="B350" t="s">
@@ -3941,7 +3967,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="14" t="s">
+      <c r="A351" t="s">
         <v>360</v>
       </c>
       <c r="B351" t="s">
@@ -3949,7 +3975,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="s">
+      <c r="A352" t="s">
         <v>361</v>
       </c>
       <c r="B352" t="s">
@@ -3957,7 +3983,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="14" t="s">
+      <c r="A353" t="s">
         <v>362</v>
       </c>
       <c r="B353" t="s">
@@ -3965,7 +3991,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
+      <c r="A354" t="s">
         <v>363</v>
       </c>
       <c r="B354" t="s">
@@ -3973,7 +3999,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
+      <c r="A355" t="s">
         <v>364</v>
       </c>
       <c r="B355" t="s">
@@ -3981,7 +4007,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="s">
+      <c r="A356" t="s">
         <v>365</v>
       </c>
       <c r="B356" t="s">
@@ -3989,7 +4015,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="14" t="s">
+      <c r="A357" t="s">
         <v>366</v>
       </c>
       <c r="B357" t="s">
@@ -3997,7 +4023,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="14" t="s">
+      <c r="A358" t="s">
         <v>367</v>
       </c>
       <c r="B358" t="s">
@@ -4005,7 +4031,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="14" t="s">
+      <c r="A359" t="s">
         <v>368</v>
       </c>
       <c r="B359" t="s">
@@ -4013,7 +4039,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="14" t="s">
+      <c r="A360" t="s">
         <v>369</v>
       </c>
       <c r="B360" t="s">
@@ -4021,7 +4047,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="14" t="s">
+      <c r="A361" t="s">
         <v>370</v>
       </c>
       <c r="B361" t="s">
@@ -4029,7 +4055,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="s">
+      <c r="A362" t="s">
         <v>371</v>
       </c>
       <c r="B362" t="s">
@@ -4037,7 +4063,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="14" t="s">
+      <c r="A363" t="s">
         <v>372</v>
       </c>
       <c r="B363" t="s">
@@ -4045,7 +4071,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="14" t="s">
+      <c r="A364" t="s">
         <v>373</v>
       </c>
       <c r="B364" t="s">
@@ -4053,7 +4079,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="14" t="s">
+      <c r="A365" t="s">
         <v>374</v>
       </c>
       <c r="B365" t="s">
@@ -4061,7 +4087,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="14" t="s">
+      <c r="A366" t="s">
         <v>375</v>
       </c>
       <c r="B366" t="s">
@@ -4069,7 +4095,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="14" t="s">
+      <c r="A367" t="s">
         <v>376</v>
       </c>
       <c r="B367" t="s">
@@ -4077,7 +4103,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="14" t="s">
+      <c r="A368" t="s">
         <v>377</v>
       </c>
       <c r="B368" t="s">
@@ -4085,7 +4111,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="14" t="s">
+      <c r="A369" t="s">
         <v>378</v>
       </c>
       <c r="B369" t="s">
@@ -4093,7 +4119,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="s">
+      <c r="A370" t="s">
         <v>379</v>
       </c>
       <c r="B370" t="s">
@@ -4101,7 +4127,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="14" t="s">
+      <c r="A371" t="s">
         <v>380</v>
       </c>
       <c r="B371" t="s">
@@ -4109,7 +4135,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="s">
+      <c r="A372" t="s">
         <v>401</v>
       </c>
       <c r="B372" t="s">
@@ -4117,7 +4143,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="13" t="s">
         <v>383</v>
       </c>
       <c r="B373" t="s">
@@ -4178,6 +4204,78 @@
       </c>
       <c r="B380" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B381" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B382" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B383" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B384" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B385" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B386" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B387" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B388" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B389" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/PIsearching key.xlsx
+++ b/PIsearching key.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="422">
   <si>
     <t>PIs</t>
   </si>
@@ -1255,13 +1255,43 @@
   </si>
   <si>
     <t>LMU</t>
+  </si>
+  <si>
+    <t>Andreas Butz</t>
+  </si>
+  <si>
+    <t>Alexander M. Fraser</t>
+  </si>
+  <si>
+    <t>Michael Ingrisch</t>
+  </si>
+  <si>
+    <t>Claudia Linnhoff-Popien</t>
+  </si>
+  <si>
+    <t>Sven Nyholm</t>
+  </si>
+  <si>
+    <t>Katia Parodi</t>
+  </si>
+  <si>
+    <t>Holger Rauhut</t>
+  </si>
+  <si>
+    <t>Volker Tresp</t>
+  </si>
+  <si>
+    <t>Kristian Unger</t>
+  </si>
+  <si>
+    <t>Thomas Seidl 0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1336,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1370,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1394,6 +1430,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1683,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:C399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390:B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,7 +4244,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="12" t="s">
+      <c r="A381" t="s">
         <v>402</v>
       </c>
       <c r="B381" t="s">
@@ -4215,7 +4252,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="12" t="s">
+      <c r="A382" t="s">
         <v>403</v>
       </c>
       <c r="B382" t="s">
@@ -4223,7 +4260,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="12" t="s">
+      <c r="A383" t="s">
         <v>404</v>
       </c>
       <c r="B383" t="s">
@@ -4231,50 +4268,131 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="12" t="s">
+      <c r="A384" t="s">
         <v>405</v>
       </c>
       <c r="B384" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="12" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>406</v>
       </c>
       <c r="B385" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="12" t="s">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>407</v>
       </c>
       <c r="B386" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="12" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>408</v>
       </c>
       <c r="B387" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="12" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>409</v>
       </c>
       <c r="B388" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="12" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>410</v>
       </c>
       <c r="B389" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B390" t="s">
+        <v>411</v>
+      </c>
+      <c r="C390" s="15"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B391" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B392" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B393" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B394" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B395" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B396" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B397" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B398" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B399" t="s">
         <v>411</v>
       </c>
     </row>
